--- a/documentation/term_interpretation_example.xlsx
+++ b/documentation/term_interpretation_example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -82,304 +82,272 @@
     <t xml:space="preserve">P13. Interaction level: 1. max(model_year-73.000000,0) * I(min(weight-3725.000000,0)!=0)</t>
   </si>
   <si>
-    <t xml:space="preserve">P14. Interaction level: 2. min(weight-3445.000000,0) * I(min(weight-3725.000000,0)*max(model_year-73.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P15. Interaction level: 2. min(weight-3432.000000,0) * I(min(weight-3725.000000,0)*max(model_year-73.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16. Interaction level: 2. max(model_year-75.000000,0) * I(max(model_year-73.000000,0)*min(weight-3432.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P17. Interaction level: 2. min(weight-3410.000000,0) * I(min(weight-3725.000000,0)*max(model_year-73.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P18. Interaction level: 2. max(model_year-75.000000,0) * I(max(model_year-73.000000,0)*min(weight-3410.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P19. Interaction level: 2. min(horsepower-110.000000,0) * I(min(weight-3432.000000,0)*max(model_year-75.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When horsepower is below 110 and when weight is below 3432 and when model_year exceeds 75 then the prediction decreases by 0.02232 for every unit increase of horsepower.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20. Interaction level: 2. min(horsepower-108.000000,0) * I(min(weight-3432.000000,0)*max(model_year-75.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P21. Interaction level: 2. max(model_year-76.000000,0) * I(max(model_year-73.000000,0)*min(weight-3410.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P22. Interaction level: 2. min(horsepower-105.000000,0) * I(min(weight-3432.000000,0)*max(model_year-75.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P23. Interaction level: 2. min(horsepower-103.000000,0) * I(min(weight-3410.000000,0)*max(model_year-76.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P24. Interaction level: 3. max(model_year-77.000000,0) * I(min(weight-3410.000000,0)*max(model_year-76.000000,0)*min(horsepower-103.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P25. Interaction level: 0. min(weight-2815.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P26. Interaction level: 0. min(weight-2807.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P27. Interaction level: 3. min(displacement-151.000000,0) * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-77.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P28. Interaction level: 0. min(weight-2795.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P29. Interaction level: 0. min(weight-2789.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P30. Interaction level: 1. max(model_year-76.000000,0) * I(min(weight-2789.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P31. Interaction level: 0. min(weight-2774.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P32. Interaction level: 0. min(weight-2755.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P33. Interaction level: 0. min(weight-2745.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P34. Interaction level: 0. min(weight-2740.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P35. Interaction level: 1. max(model_year-76.000000,0) * I(min(weight-2740.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P36. Interaction level: 2. min(horsepower-97.000000,0) * I(min(weight-3410.000000,0)*max(model_year-76.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P37. Interaction level: 3. min(displacement-146.000000,0) * I(min(weight-3410.000000,0)*max(model_year-76.000000,0)*min(horsepower-97.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P38. Interaction level: 0. min(weight-2648.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P39. Interaction level: 1. max(model_year-76.000000,0) * I(min(weight-2648.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P40. Interaction level: 3. max(model_year-78.000000,0) * I(min(weight-3410.000000,0)*max(model_year-76.000000,0)*min(horsepower-103.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P41. Interaction level: 3. weight * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P42. Interaction level: 3. cylinders * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P43. Interaction level: 3. min(USA-1.000000,0) * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P44. Interaction level: 4. displacement * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)*min(USA-1.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P45. Interaction level: 4. cylinders * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)*min(USA-1.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P46. Interaction level: 0. min(weight-2515.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P47. Interaction level: 1. min(USA-1.000000,0) * I(min(weight-2515.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P48. Interaction level: 2. cylinders * I(min(weight-2515.000000,0)*min(USA-1.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P49. Interaction level: 2. acceleration * I(min(weight-2515.000000,0)*min(USA-1.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P50. Interaction level: 0. USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear effect of USA (in this model USA is actually a dummy variable).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P51. Interaction level: 1. weight * I(USA!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P52. Interaction level: 1. min(horsepower-190.000000,0) * I(USA!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P53. Interaction level: 2. min(model_year-82.000000,0) * I(USA*min(horsepower-190.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P54. Interaction level: 3. max(acceleration-14.400000,0) * I(USA*min(horsepower-190.000000,0)*min(model_year-82.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P55. Interaction level: 3. max(acceleration-13.200000,0) * I(USA*min(horsepower-190.000000,0)*min(model_year-82.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P56. Interaction level: 1. min(model_year-73.000000,0) * I(min(weight-2648.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P57. Interaction level: 2. min(displacement-113.000000,0) * I(min(weight-2648.000000,0)*min(model_year-73.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P58. Interaction level: 2. horsepower * I(min(model_year-73.000000,0)*min(displacement-113.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P59. Interaction level: 2. Japan * I(min(model_year-73.000000,0)*min(displacement-113.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P60. Interaction level: 2. max(acceleration-16.400000,0) * I(min(weight-2515.000000,0)*min(USA-1.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P61. Interaction level: 3. min(displacement-90.000000,0) * I(min(weight-2515.000000,0)*min(USA-1.000000,0)*max(acceleration-16.400000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P62. Interaction level: 2. horsepower * I(max(acceleration-16.400000,0)*min(displacement-90.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P63. Interaction level: 4. displacement * I(USA*min(horsepower-190.000000,0)*min(model_year-82.000000,0)*max(acceleration-13.200000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P64. Interaction level: 2. min(acceleration-16.500000,0) * I(min(weight-2648.000000,0)*min(model_year-73.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P65. Interaction level: 3. max(acceleration-14.500000,0) * I(USA*min(horsepower-190.000000,0)*min(model_year-82.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P66. Interaction level: 4. max(displacement-105.000000,0) * I(USA*min(horsepower-190.000000,0)*min(model_year-82.000000,0)*max(acceleration-13.200000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P67. Interaction level: 5. displacement * I(USA*min(horsepower-190.000000,0)*min(model_year-82.000000,0)*max(acceleration-13.200000,0)*max(displacement-105.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P68. Interaction level: 5. min(horsepower-149.000000,0) * I(USA*min(horsepower-190.000000,0)*min(model_year-82.000000,0)*max(acceleration-13.200000,0)*max(displacement-105.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P69. Interaction level: 3. displacement * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P70. Interaction level: 5. min(horsepower-125.000000,0) * I(USA*min(model_year-82.000000,0)*max(acceleration-13.200000,0)*max(displacement-105.000000,0)*min(horsepower-149.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P71. Interaction level: 5. max(displacement-198.000000,0) * I(USA*min(model_year-82.000000,0)*max(acceleration-13.200000,0)*max(displacement-105.000000,0)*min(horsepower-125.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P72. Interaction level: 3. min(horsepower-110.000000,0) * I(min(model_year-82.000000,0)*min(horsepower-125.000000,0)*max(displacement-198.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P73. Interaction level: 3. model_year * I(min(model_year-82.000000,0)*max(displacement-198.000000,0)*min(horsepower-110.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P74. Interaction level: 3. USA * I(min(model_year-82.000000,0)*max(displacement-198.000000,0)*min(horsepower-110.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P75. Interaction level: 1. min(weight-2164.000000,0) * I(USA!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P76. Interaction level: 2. horsepower * I(USA*min(weight-2164.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P77. Interaction level: 5. min(horsepower-90.000000,0) * I(USA*min(model_year-82.000000,0)*max(acceleration-13.200000,0)*max(displacement-105.000000,0)*min(horsepower-149.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P78. Interaction level: 4. displacement * I(USA*min(model_year-82.000000,0)*max(displacement-105.000000,0)*min(horsepower-90.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P79. Interaction level: 3. max(displacement-225.000000,0) * I(min(model_year-82.000000,0)*min(horsepower-125.000000,0)*max(displacement-198.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P80. Interaction level: 3. min(horsepower-105.000000,0) * I(min(model_year-82.000000,0)*min(horsepower-125.000000,0)*max(displacement-225.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P81. Interaction level: 3. model_year * I(min(model_year-82.000000,0)*max(displacement-225.000000,0)*min(horsepower-105.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P82. Interaction level: 3. USA * I(min(model_year-82.000000,0)*max(displacement-225.000000,0)*min(horsepower-105.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P83. Interaction level: 3. min(model_year-76.000000,0) * I(min(model_year-82.000000,0)*min(horsepower-125.000000,0)*max(displacement-225.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P84. Interaction level: 3. acceleration * I(min(horsepower-125.000000,0)*max(displacement-225.000000,0)*min(model_year-76.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P85. Interaction level: 2. min(horsepower-63.000000,0) * I(max(model_year-73.000000,0)*min(weight-3410.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P86. Interaction level: 4. max(displacement-91.000000,0) * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)*min(USA-1.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P87. Interaction level: 5. cylinders * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)*min(USA-1.000000,0)*max(displacement-91.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P88. Interaction level: 5. horsepower * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)*min(USA-1.000000,0)*max(displacement-91.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P89. Interaction level: 5. Europe * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)*min(USA-1.000000,0)*max(displacement-91.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P90. Interaction level: 2. USA * I(max(model_year-73.000000,0)*min(horsepower-63.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P91. Interaction level: 3. min(displacement-98.000000,0) * I(min(weight-3410.000000,0)*min(horsepower-103.000000,0)*max(model_year-78.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P92. Interaction level: 2. displacement * I(min(weight-2648.000000,0)*min(model_year-73.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P93. Interaction level: 1. min(model_year-72.000000,0) * I(min(weight-2745.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P94. Interaction level: 2. horsepower * I(min(weight-2745.000000,0)*min(model_year-72.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P95. Interaction level: 0. min(displacement-86.000000,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P96. Interaction level: 1. model_year * I(min(displacement-86.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P97. Interaction level: 1. Japan * I(min(displacement-86.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P98. Interaction level: 1. min(acceleration-14.000000,0) * I(USA!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P99. Interaction level: 2. min(horsepower-145.000000,0) * I(USA*min(acceleration-14.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P100. Interaction level: 2. max(model_year-76.000000,0) * I(USA*min(acceleration-14.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P101. Interaction level: 3. USA * I(USA*min(acceleration-14.000000,0)*max(model_year-76.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P102. Interaction level: 2. model_year * I(min(acceleration-14.000000,0)*max(model_year-76.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P103. Interaction level: 2. max(model_year-77.000000,0) * I(USA*min(acceleration-14.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P104. Interaction level: 3. model_year * I(USA*min(acceleration-14.000000,0)*max(model_year-77.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P105. Interaction level: 2. max(horsepower-160.000000,0) * I(USA*min(acceleration-14.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P106. Interaction level: 2. horsepower * I(min(acceleration-14.000000,0)*max(horsepower-160.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P107. Interaction level: 2. displacement * I(min(acceleration-14.000000,0)*max(horsepower-160.000000,0)!=0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P108. Interaction level: 2. Japan * I(min(acceleration-14.000000,0)*max(model_year-76.000000,0)!=0)</t>
+    <t xml:space="preserve">P14. Interaction level: 1. min(weight-3445.000000,0) * I(max(model_year-73.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P15. Interaction level: 1. min(weight-3520.000000,0) * I(max(model_year-73.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P16. Interaction level: 1. min(weight-3432.000000,0) * I(max(model_year-73.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P17. Interaction level: 1. max(model_year-75.000000,0) * I(min(weight-3445.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P18. Interaction level: 1. max(model_year-73.000000,0) * I(min(weight-3432.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P19. Interaction level: 2. min(horsepower-110.000000,0) * I(min(weight-3445.000000,0)*max(model_year-75.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When horsepower is below 110 and when weight is below 3432 and when model_year exceeds 75 then the prediction decreases by 0.018847 for every unit increase of horsepower.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20. Interaction level: 2. min(horsepower-108.000000,0) * I(min(weight-3445.000000,0)*max(model_year-75.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P21. Interaction level: 2. min(horsepower-105.000000,0) * I(min(weight-3445.000000,0)*max(model_year-75.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P22. Interaction level: 2. max(model_year-76.000000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P23. Interaction level: 3. min(displacement-151.000000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-76.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P24. Interaction level: 2. min(horsepower-92.000000,0) * I(min(weight-3445.000000,0)*max(model_year-76.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P25. Interaction level: 2. min(horsepower-103.000000,0) * I(min(weight-3445.000000,0)*max(model_year-77.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P26. Interaction level: 2. min(horsepower-103.000000,0) * I(min(weight-3445.000000,0)*max(model_year-76.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P27. Interaction level: 0. min(weight-2795.000000,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P28. Interaction level: 0. min(weight-2789.000000,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P29. Interaction level: 0. min(weight-2774.000000,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P30. Interaction level: 1. max(model_year-76.000000,0) * I(min(weight-2774.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P31. Interaction level: 2. min(horsepower-97.000000,0) * I(min(weight-3445.000000,0)*max(model_year-77.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P32. Interaction level: 3. min(displacement-151.000000,0) * I(min(weight-3445.000000,0)*max(model_year-77.000000,0)*min(horsepower-97.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P33. Interaction level: 0. min(weight-2755.000000,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P34. Interaction level: 2. max(model_year-78.000000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P35. Interaction level: 3. acceleration * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P36. Interaction level: 3. cylinders * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P37. Interaction level: 3. min(USA-1.000000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P38. Interaction level: 4. cylinders * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-78.000000,0)*min(USA-1.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P39. Interaction level: 0. min(weight-2515.000000,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P40. Interaction level: 1. min(USA-1.000000,0) * I(min(weight-2515.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P41. Interaction level: 2. cylinders * I(min(weight-2515.000000,0)*min(USA-1.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P42. Interaction level: 2. acceleration * I(min(weight-2515.000000,0)*min(USA-1.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P43. Interaction level: 3. min(acceleration-16.100000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P44. Interaction level: 0. min(weight-2490.000000,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P45. Interaction level: 3. min(acceleration-16.000000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P46. Interaction level: 3. Japan * I(min(horsepower-105.000000,0)*max(model_year-78.000000,0)*min(acceleration-16.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P47. Interaction level: 1. min(model_year-82.000000,0) * I(USA!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P48. Interaction level: 2. max(acceleration-14.400000,0) * I(USA*min(model_year-82.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P49. Interaction level: 2. max(acceleration-13.200000,0) * I(USA*min(model_year-82.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P50. Interaction level: 3. max(displacement-105.000000,0) * I(USA*min(model_year-82.000000,0)*max(acceleration-13.200000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P51. Interaction level: 4. weight * I(USA*min(model_year-82.000000,0)*max(acceleration-13.200000,0)*max(displacement-105.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P52. Interaction level: 0. min(weight-2670.000000,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P53. Interaction level: 3. max(acceleration-13.700000,0) * I(USA*min(model_year-82.000000,0)*max(displacement-105.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P54. Interaction level: 3. max(acceleration-12.500000,0) * I(USA*min(model_year-82.000000,0)*max(displacement-105.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P55. Interaction level: 3. min(model_year-79.000000,0) * I(USA*max(displacement-105.000000,0)*max(acceleration-12.500000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P56. Interaction level: 4. weight * I(USA*max(displacement-105.000000,0)*max(acceleration-12.500000,0)*min(model_year-79.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P57. Interaction level: 3. max(acceleration-13.400000,0) * I(USA*max(displacement-105.000000,0)*min(model_year-79.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P58. Interaction level: 3. max(acceleration-11.400000,0) * I(USA*max(displacement-105.000000,0)*min(model_year-79.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P59. Interaction level: 3. max(acceleration-12.200000,0) * I(USA*max(displacement-105.000000,0)*min(model_year-79.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P60. Interaction level: 3. max(displacement-140.000000,0) * I(USA*min(model_year-79.000000,0)*max(acceleration-13.400000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P61. Interaction level: 4. weight * I(USA*min(model_year-79.000000,0)*max(acceleration-13.400000,0)*max(displacement-140.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P62. Interaction level: 4. min(horsepower-150.000000,0) * I(USA*min(model_year-79.000000,0)*max(acceleration-13.400000,0)*max(displacement-140.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P63. Interaction level: 4. min(horsepower-110.000000,0) * I(USA*min(model_year-79.000000,0)*max(acceleration-13.400000,0)*max(displacement-140.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P64. Interaction level: 1. min(model_year-73.000000,0) * I(min(weight-2774.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P65. Interaction level: 2. min(displacement-116.000000,0) * I(min(weight-2774.000000,0)*min(model_year-73.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P66. Interaction level: 3. max(displacement-231.000000,0) * I(USA*min(model_year-79.000000,0)*min(horsepower-110.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P67. Interaction level: 3. acceleration * I(min(model_year-79.000000,0)*min(horsepower-110.000000,0)*max(displacement-231.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P68. Interaction level: 2. Japan * I(min(model_year-73.000000,0)*min(displacement-116.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P69. Interaction level: 3. USA * I(min(model_year-79.000000,0)*min(horsepower-110.000000,0)*max(displacement-231.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P70. Interaction level: 3. min(acceleration-15.700000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P71. Interaction level: 2. max(acceleration-16.400000,0) * I(min(weight-2515.000000,0)*min(USA-1.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P72. Interaction level: 3. min(displacement-90.000000,0) * I(min(weight-2515.000000,0)*min(USA-1.000000,0)*max(acceleration-16.400000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P73. Interaction level: 2. horsepower * I(max(acceleration-16.400000,0)*min(displacement-90.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P74. Interaction level: 2. weight * I(max(acceleration-16.400000,0)*min(displacement-90.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P75. Interaction level: 3. min(acceleration-15.600000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P76. Interaction level: 3. displacement * I(min(horsepower-105.000000,0)*max(model_year-78.000000,0)*min(acceleration-15.600000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P77. Interaction level: 3. min(displacement-91.000000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-76.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P78. Interaction level: 2. Europe * I(max(model_year-76.000000,0)*min(displacement-91.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P79. Interaction level: 1. min(model_year-72.000000,0) * I(min(weight-2774.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P80. Interaction level: 2. cylinders * I(min(weight-2774.000000,0)*min(model_year-72.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P81. Interaction level: 2. horsepower * I(min(weight-2774.000000,0)*min(model_year-72.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P82. Interaction level: 3. cylinders * I(min(horsepower-105.000000,0)*max(model_year-78.000000,0)*min(acceleration-15.600000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P83. Interaction level: 4. min(horsepower-95.000000,0) * I(USA*min(model_year-82.000000,0)*max(acceleration-13.200000,0)*max(displacement-105.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P84. Interaction level: 4. max(displacement-151.000000,0) * I(USA*min(model_year-82.000000,0)*max(acceleration-13.200000,0)*min(horsepower-95.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P85. Interaction level: 4. acceleration * I(USA*min(model_year-82.000000,0)*min(horsepower-95.000000,0)*max(displacement-151.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P86. Interaction level: 4. weight * I(USA*min(model_year-82.000000,0)*min(horsepower-95.000000,0)*max(displacement-151.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P87. Interaction level: 0. min(displacement-86.000000,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P88. Interaction level: 1. horsepower * I(min(displacement-86.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P89. Interaction level: 1. Japan * I(min(displacement-86.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P90. Interaction level: 3. min(acceleration-15.500000,0) * I(min(weight-3445.000000,0)*min(horsepower-105.000000,0)*max(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P91. Interaction level: 3. cylinders * I(min(horsepower-105.000000,0)*max(model_year-78.000000,0)*min(acceleration-15.500000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P92. Interaction level: 3. Japan * I(min(horsepower-105.000000,0)*max(model_year-78.000000,0)*min(acceleration-15.500000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P93. Interaction level: 3. min(model_year-78.000000,0) * I(USA*max(displacement-105.000000,0)*max(acceleration-12.500000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P94. Interaction level: 4. max(cylinders-4.000000,0) * I(USA*max(displacement-105.000000,0)*max(acceleration-12.500000,0)*min(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P95. Interaction level: 3. max(displacement-198.000000,0) * I(USA*max(acceleration-12.500000,0)*min(model_year-78.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P96. Interaction level: 3. cylinders * I(max(acceleration-12.500000,0)*min(model_year-78.000000,0)*max(displacement-198.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P97. Interaction level: 2. min(model_year-76.000000,0) * I(max(acceleration-12.500000,0)*max(displacement-198.000000,0)!=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P98. Interaction level: 2. min(model_year-78.000000,0) * I(max(acceleration-12.500000,0)*max(displacement-198.000000,0)!=0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -462,7 +430,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,6 +452,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,7 +485,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>11.4984884792174</v>
+        <v>11.8378379874118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>-0.0522297636315378</v>
+        <v>-0.052229763631538</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -560,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>-0.00243062775039893</v>
+        <v>-0.002430627750399</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>-0.00183028693666526</v>
+        <v>-0.001830286936665</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +555,7 @@
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>-4.7290273536254E-005</v>
       </c>
     </row>
@@ -591,7 +563,7 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>-4.72066381413311E-005</v>
       </c>
     </row>
@@ -599,7 +571,7 @@
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>-9.32126314529867E-005</v>
       </c>
     </row>
@@ -608,14 +580,14 @@
         <v>12</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>0.0106385865571829</v>
+        <v>0.010638586557183</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="6" t="n">
         <v>-4.65168486053653E-005</v>
       </c>
     </row>
@@ -624,9 +596,9 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>0.0244197126980821</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>0.024419712698082</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -634,7 +606,7 @@
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <v>-4.74240361529425E-005</v>
       </c>
     </row>
@@ -651,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>0.00972638017121321</v>
+        <v>0.009726380171213</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.0110928217953249</v>
+        <v>0.011092821795325</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>-0.000673154277922704</v>
+        <v>-0.000301365890737</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,7 +647,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>-0.00016673605467164</v>
+        <v>-0.000295986068859</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.0131368713002572</v>
+        <v>-0.0002240308646</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>-5.42814157034176E-005</v>
+        <v>0.013129853513604</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.0129952095474305</v>
+        <v>0.018293305837831</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>-0.0223156575072179</v>
+        <v>-0.018847022921909</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -718,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>-0.0394708904367239</v>
+        <v>-0.03926051067769</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,7 +698,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>0.0285616820703274</v>
+        <v>-0.012215261202731</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,7 +706,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>-0.00399395426338181</v>
+        <v>0.054423735089711</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>-0.0404301924616767</v>
+        <v>-0.003465611866146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>0.114912244175657</v>
+        <v>-0.001919835072289</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,7 +730,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>-3.50363504980379E-005</v>
+        <v>-0.035835903628679</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,7 +738,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>-3.44737812472713E-005</v>
+        <v>-0.007783237177567</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,7 +746,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>-0.00615169611257121</v>
+        <v>-0.000106622649623</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +754,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>-6.6920625605863E-005</v>
+        <v>-0.000281037383692</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +762,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>-9.48368090790812E-005</v>
+        <v>-0.000194936511895</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,7 +770,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>0.0453585941581838</v>
+        <v>0.035903197422575</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,7 +778,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>-0.00019637995507816</v>
+        <v>-0.001808867844587</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,15 +786,15 @@
         <v>39</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>-5.23951874086903E-005</v>
+        <v>-0.004368339029912</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5" t="n">
-        <v>-2.57403095948089E-005</v>
+      <c r="B36" s="6" t="n">
+        <v>-2.40450828058994E-005</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,7 +802,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>-7.49082765076738E-005</v>
+        <v>0.006859111082315</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +810,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>0.0132923010478509</v>
+        <v>0.004966852910942</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +818,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>-0.000723385276806771</v>
+        <v>0.2505046043661</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +826,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>-0.00303413505057727</v>
+        <v>-0.024283867271321</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,7 +834,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>-5.15450337594362E-005</v>
+        <v>0.088270244580102</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,7 +842,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>0.00428305945569159</v>
+        <v>-0.000432168922355</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,7 +850,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>0.00616947750296963</v>
+        <v>-0.044209522604393</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,7 +858,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>1.64253628638964E-005</v>
+        <v>0.061466334214218</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,7 +866,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>0.278330775302739</v>
+        <v>0.014970217825506</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,15 +874,15 @@
         <v>50</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>-0.020746090842751</v>
+        <v>-0.034147068974796</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="5" t="n">
-        <v>0.000588715064837302</v>
+      <c r="B47" s="6" t="n">
+        <v>-8.10391285020086E-005</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,7 +890,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>0.0588820571787248</v>
+        <v>-0.049314395069297</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,7 +898,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>-0.000421602868834306</v>
+        <v>0.782316388884295</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,7 +906,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>-0.0516196865603145</v>
+        <v>0.002822837078496</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,7 +914,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>0.0487953431158935</v>
+        <v>-0.240149885463876</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,485 +922,412 @@
         <v>56</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>0.00973996694029969</v>
+        <v>-0.00872832281051</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="5" t="n">
-        <v>-0.00632758317806958</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>58</v>
+      <c r="B53" s="6" t="n">
+        <v>-5.54642475498195E-005</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="5" t="n">
-        <v>-1.85021378958464E-006</v>
+        <v>58</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>-1.17575110184712E-005</v>
       </c>
       <c r="C54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="5" t="n">
-        <v>0.000167938929303912</v>
+        <v>59</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>-1.40790685149304E-005</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="5" t="n">
-        <v>0.00114498500401021</v>
+        <v>-0.002680094374529</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="5" t="n">
-        <v>-0.175622583148811</v>
+        <v>-0.013970167719808</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="5" t="n">
-        <v>-0.068398634814383</v>
+        <v>0.001530773706853</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="5" t="n">
-        <v>-0.00739248236227014</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>-4.58530478288796E-006</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="5" t="n">
-        <v>-0.00482285931030572</v>
+        <v>-0.002859161834954</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="5" t="n">
-        <v>0.008069452679992</v>
+        <v>-0.022789622203285</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="5" t="n">
-        <v>0.964371572391068</v>
+        <v>-0.001988601478236</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="5" t="n">
-        <v>0.00447605554927013</v>
+        <v>-0.001339625250563</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="5" t="n">
-        <v>-0.00666799469299456</v>
+        <v>68</v>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>-5.05266281524277E-006</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="5" t="n">
-        <v>0.0443465449072283</v>
+        <v>0.002587469665321</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="5" t="n">
-        <v>-5.51378223840554E-005</v>
+        <v>0.000707985740503</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="5" t="n">
-        <v>-0.517085074158027</v>
+        <v>-0.006541109286133</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="5" t="n">
-        <v>-0.00242428937898259</v>
+        <v>-0.018585451401405</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="5" t="n">
-        <v>-4.55456525825249E-005</v>
+        <v>-0.002684698022127</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="5" t="n">
-        <v>-0.000111838389668886</v>
+        <v>-0.063672401421774</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="5" t="n">
-        <v>0.00179831671163615</v>
+        <v>0.699862983097347</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="5" t="n">
-        <v>0.00268740564018984</v>
+        <v>-0.01783663602654</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="5" t="n">
-        <v>0.000441101003644402</v>
+        <v>-0.102472804883204</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="5" t="n">
-        <v>-0.00104746351045292</v>
+        <v>0.007883934247549</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="5" t="n">
-        <v>0.0281789162645775</v>
+        <v>-0.006257339423447</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="5" t="n">
-        <v>-0.000261178179358052</v>
+        <v>0.028945151921416</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="5" t="n">
-        <v>-0.0819427476344802</v>
+        <v>0.000223485124655</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="5" t="n">
-        <v>-0.00202945266005932</v>
+        <v>-0.03531918661573</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="5" t="n">
-        <v>0.00945512717893446</v>
+        <v>0.002246255146562</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="5" t="n">
-        <v>0.00192694380716837</v>
+        <v>0.034664031915637</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="5" t="n">
-        <v>-0.000970223240874603</v>
+        <v>-1.02219766130586</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="5" t="n">
-        <v>-0.000708178357673572</v>
+        <v>-0.006741118661609</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="5" t="n">
-        <v>0.00150385758311162</v>
+        <v>0.011525253885448</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="5" t="n">
-        <v>-0.000892155485586392</v>
+        <v>0.00873030627836</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="5" t="n">
-        <v>-0.162182469237832</v>
+        <v>0.022871926844586</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="5" t="n">
-        <v>0.00443967121610256</v>
+        <v>0.004690173809812</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="5" t="n">
-        <v>-0.0349147633336507</v>
+        <v>-0.000156053240276</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="5" t="n">
-        <v>-0.0464421608534113</v>
+        <v>-0.002848807670552</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="5" t="n">
-        <v>0.000321016355246888</v>
+        <v>-0.000105408685672</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="5" t="n">
-        <v>0.0133071709652546</v>
+        <v>0.001739050959824</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="5" t="n">
-        <v>0.00796676586379748</v>
+        <v>-0.000521141208156</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="5" t="n">
-        <v>1.31432123915686</v>
+        <v>-0.974291401070109</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="5" t="n">
-        <v>-1.0029942227454</v>
+        <v>-0.004871237216925</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="5" t="n">
-        <v>0.0214942845253506</v>
+        <v>0.043613146991584</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="5" t="n">
-        <v>0.000407656182401622</v>
+        <v>0.012373448350929</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="5" t="n">
-        <v>-0.00500360796438616</v>
+        <v>0.000852901007108</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="5" t="n">
-        <v>0.0083712115241726</v>
+        <v>-0.006554342360231</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" s="5" t="n">
-        <v>0.000749065617543305</v>
+        <v>-0.000395998351675</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="5" t="n">
-        <v>-0.000112461117058756</v>
+        <v>-0.003175399433359</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="5" t="n">
-        <v>-1.31624257608668</v>
+        <v>0.002002542154833</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="5" t="n">
-        <v>-0.00174638122015138</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="5" t="n">
-        <v>-0.000808940932037532</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="5" t="n">
-        <v>0.0733387725948329</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="5" t="n">
-        <v>0.106525578025138</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="5" t="n">
-        <v>0.0127436728681929</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="5" t="n">
-        <v>0.003528182407132</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="5" t="n">
-        <v>0.00359389125995727</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="5" t="n">
-        <v>0.000187037253948312</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="5" t="n">
-        <v>0.000120435899127718</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="5" t="n">
-        <v>0.000698143096426317</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="5" t="n">
-        <v>0.364484489229983</v>
-      </c>
-    </row>
+        <v>0.002667113369251</v>
+      </c>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
